--- a/src/main/resources/template_example.xlsx
+++ b/src/main/resources/template_example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5035A-DBF3-456D-8C99-80CEC2AA1BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E1D81-C436-4D1A-945E-CA87A2DD77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1088,6 +1088,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,38 +1399,39 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" customWidth="1"/>
-    <col min="23" max="23" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" customWidth="1"/>
-    <col min="27" max="27" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" customWidth="1"/>
-    <col min="31" max="31" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" customWidth="1"/>
     <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.54296875" customWidth="1"/>
-    <col min="37" max="37" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -1480,7 +1485,7 @@
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
-    <row r="2" spans="1:37" ht="29">
+    <row r="2" spans="1:37" ht="30">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1507,7 @@
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">

--- a/src/main/resources/template_example.xlsx
+++ b/src/main/resources/template_example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E1D81-C436-4D1A-945E-CA87A2DD77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB80B26A-76EB-4D96-8544-061A15E37539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -403,16 +403,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>UDI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医疗器械情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,42 +454,6 @@
   </si>
   <si>
     <t>控制措施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>产品名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注册证编号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -951,13 +911,66 @@
       <t>*</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗器械情况</t>
+  </si>
+  <si>
+    <r>
+      <t>注册证编号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>产品名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1039,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1041,7 +1062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1064,11 +1085,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,6 +1150,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1396,244 +1467,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" customWidth="1"/>
-    <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.5703125" customWidth="1"/>
-    <col min="37" max="37" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" customWidth="1"/>
+    <col min="36" max="36" width="22" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" customWidth="1"/>
+    <col min="38" max="38" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:38">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+    </row>
+    <row r="2" spans="1:38" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-    </row>
-    <row r="2" spans="1:37" ht="30">
-      <c r="A2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="L1:W1"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC6 AG3:AG6 AI3:AI6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD6 AH3:AH6 AJ3:AJ6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"与产品有关,与产品无关,无法确定"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"死亡,严重伤害,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S9" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T9" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y9" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"医疗机构,家庭,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"进口,国产,港澳台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Ⅲ类,Ⅱ类,Ⅰ类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q6" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R6" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"岁,月,天"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E6 E5" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F6 F6 F5" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"有源,无源,体外诊断试剂"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/template_example.xlsx
+++ b/src/main/resources/template_example.xlsx
@@ -32,6 +32,28 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+产品批号和编号不能同时为空</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G2" authorId="0">
       <text>
         <r>
@@ -54,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,11 +94,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-产品批号和编号不能同时为空</t>
+生产日期不能大于有效期至</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +116,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-生产日期不能大于有效期至</t>
+事件发生日期不能大于当前日期,事件发生日期不能大于发现获知日期</t>
         </r>
       </text>
     </comment>
@@ -116,7 +138,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-事件发生日期不能大于当前日期,事件发生日期不能大于发现获知日期</t>
+发现或获知日期不能大于当前日期</t>
         </r>
       </text>
     </comment>
@@ -138,7 +160,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-发现或获知日期不能大于当前日期</t>
+伤害类型为严重伤害时，伤害表现不能为空！</t>
         </r>
       </text>
     </comment>
@@ -160,11 +182,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-伤害类型为严重伤害时，伤害表现不能为空！</t>
+伤害表现或器械故障表现不能同时为空！</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+出生日期不能大于事件发生日期</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,29 +248,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-出生日期不能大于事件发生日期</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-伤害表现或器械故障表现不能同时为空！</t>
+器械使用日期不能大于当前日期且不能大于事件发生日期</t>
         </r>
       </text>
     </comment>
@@ -248,11 +270,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-器械使用日期不能大于当前日期且不能大于事件发生日期</t>
+使用场所为其他时,场所名称不能为空</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0">
+    <comment ref="AC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,11 +292,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-使用场所为其他时,场所名称不能为空</t>
+是否展开调查为是时,调查情况不能为空！</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0">
+    <comment ref="AG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +314,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-是否展开调查为是时,调查情况不能为空！</t>
+展开产品风险评价时,计划提交时间不能为空</t>
         </r>
       </text>
     </comment>
@@ -314,33 +336,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-展开产品风险评价时,计划提交时间不能为空</t>
+计划提交时间大于当前日期</t>
         </r>
       </text>
     </comment>
     <comment ref="AI2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-计划提交时间大于当前日期</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>医疗器械情况</t>
   </si>
@@ -385,30 +385,6 @@
   </si>
   <si>
     <t>控制措施</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1074,7 +1050,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,13 +1067,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1252,14 +1221,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1637,158 +1598,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1798,10 +1758,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2158,115 +2118,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="6" width="13.1363636363636" customWidth="1"/>
-    <col min="7" max="7" width="10.4272727272727" customWidth="1"/>
-    <col min="8" max="8" width="11.7090909090909" customWidth="1"/>
-    <col min="9" max="9" width="9.13636363636364" style="1"/>
-    <col min="10" max="10" width="16.7090909090909" customWidth="1"/>
-    <col min="11" max="11" width="19.1363636363636" customWidth="1"/>
-    <col min="12" max="12" width="15.1363636363636" customWidth="1"/>
-    <col min="13" max="13" width="17.5727272727273" customWidth="1"/>
-    <col min="15" max="15" width="11.4272727272727" customWidth="1"/>
-    <col min="17" max="17" width="14.8545454545455" customWidth="1"/>
-    <col min="23" max="23" width="15.8545454545455" customWidth="1"/>
-    <col min="24" max="24" width="19.2818181818182" customWidth="1"/>
-    <col min="25" max="25" width="15.4272727272727" customWidth="1"/>
-    <col min="26" max="26" width="11.4272727272727" customWidth="1"/>
-    <col min="27" max="27" width="11.7090909090909" customWidth="1"/>
-    <col min="28" max="28" width="10.8545454545455" style="2" customWidth="1"/>
-    <col min="29" max="29" width="20.4272727272727" customWidth="1"/>
-    <col min="30" max="30" width="17.5727272727273" customWidth="1"/>
-    <col min="31" max="31" width="10.2818181818182" customWidth="1"/>
-    <col min="32" max="32" width="13.1363636363636" customWidth="1"/>
-    <col min="33" max="33" width="15.4272727272727" customWidth="1"/>
-    <col min="34" max="34" width="28.5727272727273" customWidth="1"/>
-    <col min="35" max="35" width="18.5727272727273" customWidth="1"/>
-    <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="18.5727272727273" customWidth="1"/>
-    <col min="38" max="38" width="19.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="5" width="13.1363636363636" customWidth="1"/>
+    <col min="6" max="6" width="10.4272727272727" customWidth="1"/>
+    <col min="7" max="7" width="11.7090909090909" customWidth="1"/>
+    <col min="8" max="8" width="9.13636363636364" style="1"/>
+    <col min="9" max="9" width="16.7090909090909" customWidth="1"/>
+    <col min="10" max="10" width="19.1363636363636" customWidth="1"/>
+    <col min="11" max="11" width="15.1363636363636" customWidth="1"/>
+    <col min="12" max="12" width="17.5727272727273" customWidth="1"/>
+    <col min="14" max="14" width="11.4272727272727" customWidth="1"/>
+    <col min="16" max="16" width="14.8545454545455" customWidth="1"/>
+    <col min="22" max="22" width="15.8545454545455" customWidth="1"/>
+    <col min="23" max="23" width="19.2818181818182" customWidth="1"/>
+    <col min="24" max="24" width="15.4272727272727" customWidth="1"/>
+    <col min="25" max="25" width="11.4272727272727" customWidth="1"/>
+    <col min="26" max="26" width="11.7090909090909" customWidth="1"/>
+    <col min="27" max="27" width="10.8545454545455" style="2" customWidth="1"/>
+    <col min="28" max="28" width="20.4272727272727" customWidth="1"/>
+    <col min="29" max="29" width="17.5727272727273" customWidth="1"/>
+    <col min="30" max="30" width="10.2818181818182" customWidth="1"/>
+    <col min="31" max="31" width="13.1363636363636" customWidth="1"/>
+    <col min="32" max="32" width="15.4272727272727" customWidth="1"/>
+    <col min="33" max="33" width="28.5727272727273" customWidth="1"/>
+    <col min="34" max="34" width="18.5727272727273" customWidth="1"/>
+    <col min="35" max="35" width="22" customWidth="1"/>
+    <col min="36" max="36" width="18.5727272727273" customWidth="1"/>
+    <col min="37" max="37" width="19.2818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:37">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6" t="s">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6" t="s">
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
     </row>
-    <row r="2" ht="28" spans="1:38">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="28" spans="1:37">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -2275,129 +2234,126 @@
       <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L1:W1"/>
-    <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6">
       <formula1>"进口,国产,港澳台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6">
       <formula1>"Ⅲ类,Ⅱ类,Ⅰ类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>"有源,无源,体外诊断试剂"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M17">
       <formula1>"死亡,严重伤害,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q6">
       <formula1>"岁,月,天"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S9">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y9">
       <formula1>"医疗机构,家庭,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD6 AH3:AH6 AJ3:AJ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC6 AG3:AG6 AI3:AI6">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE6">
       <formula1>"与产品有关,与产品无关,无法确定"</formula1>
     </dataValidation>
   </dataValidations>
